--- a/Lista_materiales.xlsx
+++ b/Lista_materiales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegofigueroa/Documents/GitHub/bibliotecas_autoprestamo_UNAL/Sensibilizador_PCB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegofigueroa/Documents/GitHub/bibliotecas_autoprestamo_UNAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B27024-6C50-2A4F-9193-2EB6A76D263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5953256-903E-DD43-A565-794708D2222D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{6EFF0760-D250-D548-B1D7-DC577D3B340D}"/>
   </bookViews>
@@ -229,9 +229,6 @@
     <t>porta Fuse</t>
   </si>
   <si>
-    <t>Fuse 12A</t>
-  </si>
-  <si>
     <t>Connector:conector Faston macho</t>
   </si>
   <si>
@@ -491,6 +488,9 @@
   </si>
   <si>
     <t>D1, D2, D3, D4, D_danny</t>
+  </si>
+  <si>
+    <t>Fuse 8A</t>
   </si>
 </sst>
 </file>
@@ -602,35 +602,10 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -649,6 +624,31 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -663,8 +663,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{779D1AEC-09AE-0949-BE1A-CC697820D4CA}" name="Tabla2" displayName="Tabla2" ref="A1:H42" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:H42" xr:uid="{779D1AEC-09AE-0949-BE1A-CC697820D4CA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{779D1AEC-09AE-0949-BE1A-CC697820D4CA}" name="Tabla2" displayName="Tabla2" ref="A1:H42" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:H42" xr:uid="{779D1AEC-09AE-0949-BE1A-CC697820D4CA}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Vistrónica"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{47B6D6AA-C35F-8F41-AD7C-56CD70190608}" name="Ref"/>
     <tableColumn id="2" xr3:uid="{5AB610FA-7BB0-0941-8E33-714A0BEC3318}" name="Qnty"/>
@@ -979,7 +985,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1016,7 +1022,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1042,7 +1048,7 @@
         <v>60</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1068,7 +1074,7 @@
         <v>60</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1094,12 +1100,12 @@
         <v>60</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
@@ -1120,10 +1126,10 @@
         <v>61</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1146,10 +1152,10 @@
         <v>62</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>62</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1181,10 +1187,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>26</v>
@@ -1199,7 +1205,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1216,7 +1222,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>33</v>
@@ -1225,7 +1231,7 @@
         <v>60</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1242,7 +1248,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>33</v>
@@ -1251,7 +1257,7 @@
         <v>60</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1268,7 +1274,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>35</v>
@@ -1277,10 +1283,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>62</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1329,7 +1335,7 @@
         <v>60</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1340,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>47</v>
@@ -1355,10 +1361,10 @@
         <v>60</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1381,10 +1387,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -1401,18 +1407,18 @@
         <v>55</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="5">
         <v>3</v>
@@ -1433,206 +1439,206 @@
         <v>60</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="5">
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>11</v>
@@ -1641,24 +1647,24 @@
         <v>60</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>11</v>
@@ -1667,88 +1673,88 @@
         <v>60</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="5">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="5">
         <v>2</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -1756,13 +1762,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>33</v>
@@ -1771,68 +1777,68 @@
         <v>61</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="5">
         <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>47</v>
@@ -1847,12 +1853,12 @@
         <v>60</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" s="5">
         <v>3</v>
@@ -1870,117 +1876,117 @@
         <v>49</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
@@ -1988,27 +1994,27 @@
         <v>1</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B40" s="5">
         <v>2</v>
@@ -2023,65 +2029,65 @@
         <v>30</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Lista_materiales.xlsx
+++ b/Lista_materiales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegofigueroa/Documents/GitHub/bibliotecas_autoprestamo_UNAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5953256-903E-DD43-A565-794708D2222D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6D355-857D-CB47-8F6A-6E8506407830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{6EFF0760-D250-D548-B1D7-DC577D3B340D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="154">
   <si>
     <t>Ref</t>
   </si>
@@ -385,9 +385,6 @@
     <t>Connector_JST:JST_EH_S8B-EH_1x08_P2.50mm_Horizontal</t>
   </si>
   <si>
-    <t xml:space="preserve">screen1, </t>
-  </si>
-  <si>
     <t>J5</t>
   </si>
   <si>
@@ -491,6 +488,15 @@
   </si>
   <si>
     <t>Fuse 8A</t>
+  </si>
+  <si>
+    <t>screen1 conn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pantalla </t>
+  </si>
+  <si>
+    <t>pantalla</t>
   </si>
 </sst>
 </file>
@@ -663,14 +669,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{779D1AEC-09AE-0949-BE1A-CC697820D4CA}" name="Tabla2" displayName="Tabla2" ref="A1:H42" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:H42" xr:uid="{779D1AEC-09AE-0949-BE1A-CC697820D4CA}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Vistrónica"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{779D1AEC-09AE-0949-BE1A-CC697820D4CA}" name="Tabla2" displayName="Tabla2" ref="A1:H43" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:H43" xr:uid="{779D1AEC-09AE-0949-BE1A-CC697820D4CA}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{47B6D6AA-C35F-8F41-AD7C-56CD70190608}" name="Ref"/>
     <tableColumn id="2" xr3:uid="{5AB610FA-7BB0-0941-8E33-714A0BEC3318}" name="Qnty"/>
@@ -982,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3CD313-03E6-244B-AE88-DF23578FE24D}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,7 +1022,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1048,7 +1048,7 @@
         <v>60</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1074,7 +1074,7 @@
         <v>60</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1100,12 +1100,12 @@
         <v>60</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
@@ -1126,10 +1126,10 @@
         <v>61</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1152,10 +1152,10 @@
         <v>62</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>62</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>26</v>
@@ -1205,7 +1205,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1231,7 +1231,7 @@
         <v>60</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>60</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1283,10 +1283,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>62</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1335,7 +1335,7 @@
         <v>60</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1361,10 +1361,10 @@
         <v>60</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1387,10 +1387,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -1407,18 +1407,18 @@
         <v>55</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="5">
         <v>3</v>
@@ -1439,7 +1439,7 @@
         <v>60</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1465,10 +1465,10 @@
         <v>60</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -1491,12 +1491,12 @@
         <v>61</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -1517,10 +1517,10 @@
         <v>62</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -1543,12 +1543,12 @@
         <v>62</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5">
         <v>3</v>
@@ -1569,7 +1569,7 @@
         <v>60</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1595,7 +1595,7 @@
         <v>60</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>60</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1647,7 +1647,7 @@
         <v>60</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1673,10 +1673,10 @@
         <v>60</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>92</v>
       </c>
@@ -1696,13 +1696,13 @@
         <v>95</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>96</v>
       </c>
@@ -1719,16 +1719,16 @@
         <v>99</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>100</v>
       </c>
@@ -1751,10 +1751,10 @@
         <v>61</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -1777,10 +1777,10 @@
         <v>61</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>62</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1827,12 +1827,12 @@
         <v>60</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" s="5">
         <v>6</v>
@@ -1853,12 +1853,12 @@
         <v>60</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B34" s="5">
         <v>3</v>
@@ -1876,117 +1876,117 @@
         <v>49</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
@@ -2003,18 +2003,18 @@
         <v>36</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40" s="5">
         <v>2</v>
@@ -2029,18 +2029,18 @@
         <v>30</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -2055,39 +2055,65 @@
         <v>115</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Lista_materiales.xlsx
+++ b/Lista_materiales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegofigueroa/Documents/GitHub/bibliotecas_autoprestamo_UNAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Documents\GitHub\bibliotecas_autoprestamo_UNAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6D355-857D-CB47-8F6A-6E8506407830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA129330-BEF9-4CF9-8B38-F2CC5A9C2EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{6EFF0760-D250-D548-B1D7-DC577D3B340D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6EFF0760-D250-D548-B1D7-DC577D3B340D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -984,22 +984,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3CD313-03E6-244B-AE88-DF23578FE24D}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1025,12 +1025,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -1051,12 +1051,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
@@ -1077,12 +1077,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -1103,7 +1103,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>149</v>
       </c>
@@ -1129,12 +1129,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
@@ -1155,7 +1155,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1286,12 +1286,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>38</v>
@@ -1312,7 +1312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -1338,12 +1338,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>68</v>
@@ -1364,12 +1364,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>51</v>
@@ -1390,7 +1390,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>140</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>132</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>133</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>84</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>86</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>92</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>96</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>100</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>109</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>135</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>136</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>119</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>123</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>126</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>129</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>141</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>138</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>151</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>152</v>
       </c>

--- a/Lista_materiales.xlsx
+++ b/Lista_materiales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Documents\GitHub\bibliotecas_autoprestamo_UNAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prometeo\Documents\GitHub\bibliotecas_autoprestamo_UNAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA129330-BEF9-4CF9-8B38-F2CC5A9C2EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25A58BB-1DCC-47DC-898A-CF06967954B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6EFF0760-D250-D548-B1D7-DC577D3B340D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EFF0760-D250-D548-B1D7-DC577D3B340D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3CD313-03E6-244B-AE88-DF23578FE24D}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1125,8 +1125,8 @@
       <c r="G5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>147</v>
+      <c r="H5" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1750,8 +1750,8 @@
       <c r="G29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>147</v>
+      <c r="H29" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1776,8 +1776,8 @@
       <c r="G30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>147</v>
+      <c r="H30" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1982,8 +1982,8 @@
       <c r="G38" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>147</v>
+      <c r="H38" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
